--- a/CasosHipertensionArterial-Guaranis.xlsx
+++ b/CasosHipertensionArterial-Guaranis.xlsx
@@ -6,26 +6,22 @@
     <sheet state="visible" name="HIPERTENSION-C" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="HIPERTENSION-G" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="HIPERTENSION-L" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="HIPERTENSION-PC" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="HIPERTENSION-SC" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="HIPERTENSION-R-C" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="HIPERTENSION-R-G" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="HIPERTENSION-R-L" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="HIPERTENSION-R-PC" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="HIPERTENSION-R-SC" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="HIPERTENSION-CV" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="HIPERTENSION-PC" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="HIPERTENSION-SC" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="bpl5w6yxFNwfQANUUzgSzWRqAtUrrQsmTTjLnvaXiiA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="84j4LNLukN4elOg3AOdQFFRZNAG9Mf1wF6Cc0JXGERc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="15">
   <si>
     <t>Año</t>
   </si>
@@ -76,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -101,6 +97,16 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -180,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -206,6 +212,30 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -252,7 +282,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="10">
+  <tableStyles count="6">
     <tableStyle count="3" pivot="0" name="HIPERTENSION-C-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -268,6 +298,11 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
+    <tableStyle count="3" pivot="0" name="HIPERTENSION-CV-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
     <tableStyle count="3" pivot="0" name="HIPERTENSION-PC-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -278,40 +313,11 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="HIPERTENSION-R-C-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="HIPERTENSION-R-G-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="HIPERTENSION-R-L-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="HIPERTENSION-R-PC-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="HIPERTENSION-R-SC-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
   </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -335,18 +341,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M9" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="13">
@@ -365,27 +359,6 @@
     <tableColumn name="Total" id="13"/>
   </tableColumns>
   <tableStyleInfo name="HIPERTENSION-C-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M9" displayName="Table_10" name="Table_10" id="10">
-  <tableColumns count="13">
-    <tableColumn name="Año" id="1"/>
-    <tableColumn name="Sexo" id="2"/>
-    <tableColumn name="&lt; 6" id="3"/>
-    <tableColumn name="0-1" id="4"/>
-    <tableColumn name="1-4" id="5"/>
-    <tableColumn name="5-9" id="6"/>
-    <tableColumn name="10-14" id="7"/>
-    <tableColumn name="15-19" id="8"/>
-    <tableColumn name="20-39" id="9"/>
-    <tableColumn name="40-49" id="10"/>
-    <tableColumn name="50-59" id="11"/>
-    <tableColumn name="60+" id="12"/>
-    <tableColumn name="Total" id="13"/>
-  </tableColumns>
-  <tableStyleInfo name="HIPERTENSION-R-SC-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -448,7 +421,7 @@
     <tableColumn name="60+" id="12"/>
     <tableColumn name="Total" id="13"/>
   </tableColumns>
-  <tableStyleInfo name="HIPERTENSION-PC-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="HIPERTENSION-CV-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -469,7 +442,7 @@
     <tableColumn name="60+" id="12"/>
     <tableColumn name="Total" id="13"/>
   </tableColumns>
-  <tableStyleInfo name="HIPERTENSION-SC-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="HIPERTENSION-PC-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -490,70 +463,7 @@
     <tableColumn name="60+" id="12"/>
     <tableColumn name="Total" id="13"/>
   </tableColumns>
-  <tableStyleInfo name="HIPERTENSION-R-C-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M9" displayName="Table_7" name="Table_7" id="7">
-  <tableColumns count="13">
-    <tableColumn name="Año" id="1"/>
-    <tableColumn name="Sexo" id="2"/>
-    <tableColumn name="&lt; 6" id="3"/>
-    <tableColumn name="0-1" id="4"/>
-    <tableColumn name="1-4" id="5"/>
-    <tableColumn name="5-9" id="6"/>
-    <tableColumn name="10-14" id="7"/>
-    <tableColumn name="15-19" id="8"/>
-    <tableColumn name="20-39" id="9"/>
-    <tableColumn name="40-49" id="10"/>
-    <tableColumn name="50-59" id="11"/>
-    <tableColumn name="60+" id="12"/>
-    <tableColumn name="Total" id="13"/>
-  </tableColumns>
-  <tableStyleInfo name="HIPERTENSION-R-G-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M9" displayName="Table_8" name="Table_8" id="8">
-  <tableColumns count="13">
-    <tableColumn name="Año" id="1"/>
-    <tableColumn name="Sexo" id="2"/>
-    <tableColumn name="&lt; 6" id="3"/>
-    <tableColumn name="0-1" id="4"/>
-    <tableColumn name="1-4" id="5"/>
-    <tableColumn name="5-9" id="6"/>
-    <tableColumn name="10-14" id="7"/>
-    <tableColumn name="15-19" id="8"/>
-    <tableColumn name="20-39" id="9"/>
-    <tableColumn name="40-49" id="10"/>
-    <tableColumn name="50-59" id="11"/>
-    <tableColumn name="60+" id="12"/>
-    <tableColumn name="Total" id="13"/>
-  </tableColumns>
-  <tableStyleInfo name="HIPERTENSION-R-L-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M9" displayName="Table_9" name="Table_9" id="9">
-  <tableColumns count="13">
-    <tableColumn name="Año" id="1"/>
-    <tableColumn name="Sexo" id="2"/>
-    <tableColumn name="&lt; 6" id="3"/>
-    <tableColumn name="0-1" id="4"/>
-    <tableColumn name="1-4" id="5"/>
-    <tableColumn name="5-9" id="6"/>
-    <tableColumn name="10-14" id="7"/>
-    <tableColumn name="15-19" id="8"/>
-    <tableColumn name="20-39" id="9"/>
-    <tableColumn name="40-49" id="10"/>
-    <tableColumn name="50-59" id="11"/>
-    <tableColumn name="60+" id="12"/>
-    <tableColumn name="Total" id="13"/>
-  </tableColumns>
-  <tableStyleInfo name="HIPERTENSION-R-PC-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="HIPERTENSION-SC-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1139,1382 +1049,6 @@
       <c r="M9" s="3">
         <f t="shared" si="1"/>
         <v>2084</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="25" width="10.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="5">
-        <v>2020.0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>681.0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1753.0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>3536.0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>19494.0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>25495.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="8">
-        <v>2020.0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>31.0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1408.0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>3676.0</v>
-      </c>
-      <c r="K3" s="10">
-        <v>6129.0</v>
-      </c>
-      <c r="L3" s="10">
-        <v>24500.0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>35758.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="5">
-        <v>2021.0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>13.0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>36.0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1409.0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>3794.0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>7360.0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>34763.0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>47383.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="8">
-        <v>2021.0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>25.0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>65.0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>2383.0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>7135.0</v>
-      </c>
-      <c r="K5" s="10">
-        <v>12664.0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>44072.0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>66357.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="5">
-        <v>2022.0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>21.0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>40.0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1781.0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>5134.0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>10823.0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>47480.0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>65288.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="8">
-        <v>2022.0</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>22.0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>93.0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>3425.0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>9743.0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>18860.0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>63168.0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>95324.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="5">
-        <v>2023.0</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>11.0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>19.0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>66.0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2217.0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>6612.0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>13789.0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>60126.0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>82865.0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="8">
-        <v>2023.0</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>29.0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>97.0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>4264.0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>12524.0</v>
-      </c>
-      <c r="K9" s="10">
-        <v>24432.0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>79746.0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>121104.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
@@ -6285,380 +4819,372 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="13">
         <v>2020.0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>78.0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>138.0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>197.0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>1550.0</v>
-      </c>
-      <c r="M2" s="3">
-        <f t="shared" ref="M2:M9" si="1">SUM(C2:L2)</f>
-        <v>1970</v>
+      <c r="C2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="13">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="16">
         <v>2020.0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>183.0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>212.0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>314.0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>2079.0</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" si="1"/>
-        <v>2795</v>
+      <c r="C3" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="16">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="13">
         <v>2021.0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="C4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>9.0</v>
+      </c>
+      <c r="H4" s="15">
         <v>2.0</v>
       </c>
-      <c r="G4" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>94.0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>238.0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>352.0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>2719.0</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" si="1"/>
-        <v>3420</v>
+      <c r="I4" s="15">
+        <v>23.0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>65.0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>62.0</v>
+      </c>
+      <c r="L4" s="15">
+        <v>242.0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>404.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="16">
         <v>2021.0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="C5" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="18">
         <v>4.0</v>
       </c>
-      <c r="H5" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>222.0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>421.0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>665.0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>3748.0</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" si="1"/>
-        <v>5065</v>
+      <c r="H5" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>57.0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>118.0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>122.0</v>
+      </c>
+      <c r="L5" s="18">
+        <v>449.0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>752.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="13">
         <v>2022.0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>170.0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>380.0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>593.0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>2969.0</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" si="1"/>
-        <v>4123</v>
+      <c r="C6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>19.0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>46.0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>59.0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>185.0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>309.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="16">
         <v>2022.0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="C7" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="18">
         <v>1.0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="18">
         <v>2.0</v>
       </c>
-      <c r="H7" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>345.0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>719.0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1090.0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>4092.0</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" si="1"/>
-        <v>6258</v>
+      <c r="H7" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>36.0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>65.0</v>
+      </c>
+      <c r="K7" s="18">
+        <v>136.0</v>
+      </c>
+      <c r="L7" s="18">
+        <v>388.0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>628.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="13">
         <v>2023.0</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>186.0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>398.0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>617.0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>2795.0</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="1"/>
-        <v>4009</v>
+      <c r="C8" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>28.0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>46.0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>71.0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>210.0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>356.0</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="16">
         <v>2023.0</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="C9" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="18">
         <v>1.0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="H9" s="18">
         <v>2.0</v>
       </c>
-      <c r="G9" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>361.0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>825.0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1117.0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>3908.0</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" si="1"/>
-        <v>6232</v>
+      <c r="I9" s="18">
+        <v>53.0</v>
+      </c>
+      <c r="J9" s="18">
+        <v>103.0</v>
+      </c>
+      <c r="K9" s="18">
+        <v>152.0</v>
+      </c>
+      <c r="L9" s="18">
+        <v>417.0</v>
+      </c>
+      <c r="M9" s="16">
+        <v>728.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
@@ -7717,38 +6243,38 @@
         <v>13</v>
       </c>
       <c r="C2" s="4">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="F2" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="G2" s="11">
-        <v>20.0</v>
-      </c>
-      <c r="H2" s="11">
-        <v>62.0</v>
-      </c>
-      <c r="I2" s="11">
-        <v>1318.0</v>
-      </c>
-      <c r="J2" s="11">
-        <v>2509.0</v>
-      </c>
-      <c r="K2" s="11">
-        <v>4181.0</v>
-      </c>
-      <c r="L2" s="11">
-        <v>16136.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>78.0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>138.0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>197.0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1550.0</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:M9" si="1">SUM(C2:L2)</f>
-        <v>24252</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -7759,38 +6285,38 @@
         <v>14</v>
       </c>
       <c r="C3" s="4">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="4">
         <v>1.0</v>
       </c>
-      <c r="E3" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>15.0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>18.0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>88.0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>2277.0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>4412.0</v>
-      </c>
-      <c r="K3" s="11">
-        <v>6576.0</v>
-      </c>
-      <c r="L3" s="11">
-        <v>20935.0</v>
+      <c r="H3" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>183.0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>212.0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>314.0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2079.0</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" si="1"/>
-        <v>34326</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -7801,38 +6327,38 @@
         <v>13</v>
       </c>
       <c r="C4" s="4">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>44.0</v>
-      </c>
-      <c r="H4" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I4" s="4">
         <v>94.0</v>
       </c>
-      <c r="I4" s="11">
-        <v>2562.0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>5644.0</v>
-      </c>
-      <c r="K4" s="11">
-        <v>9277.0</v>
-      </c>
-      <c r="L4" s="11">
-        <v>31689.0</v>
+      <c r="J4" s="4">
+        <v>238.0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>352.0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2719.0</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="1"/>
-        <v>49330</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -7843,38 +6369,38 @@
         <v>14</v>
       </c>
       <c r="C5" s="4">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" s="4">
         <v>0.0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H5" s="4">
         <v>5.0</v>
       </c>
-      <c r="F5" s="11">
-        <v>15.0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>23.0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>142.0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>4197.0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>9363.0</v>
-      </c>
-      <c r="K5" s="11">
-        <v>14743.0</v>
-      </c>
-      <c r="L5" s="11">
-        <v>40647.0</v>
+      <c r="I5" s="4">
+        <v>222.0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>421.0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>665.0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3748.0</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="1"/>
-        <v>69138</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -7888,35 +6414,35 @@
         <v>0.0</v>
       </c>
       <c r="D6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="4">
         <v>1.0</v>
       </c>
-      <c r="E6" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>15.0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>30.0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>118.0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>3122.0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>7638.0</v>
-      </c>
-      <c r="K6" s="11">
-        <v>12528.0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>42561.0</v>
+      <c r="F6" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>170.0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>380.0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>593.0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2969.0</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="1"/>
-        <v>66017</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -7927,38 +6453,38 @@
         <v>14</v>
       </c>
       <c r="C7" s="4">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="4">
         <v>2.0</v>
       </c>
-      <c r="E7" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>14.0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>19.0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>175.0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>5107.0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>12483.0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>20499.0</v>
-      </c>
-      <c r="L7" s="11">
-        <v>56883.0</v>
+      <c r="H7" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>345.0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>719.0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1090.0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>4092.0</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="1"/>
-        <v>95192</v>
+        <v>6258</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -7969,38 +6495,38 @@
         <v>13</v>
       </c>
       <c r="C8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H8" s="4">
         <v>7.0</v>
       </c>
-      <c r="D8" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>18.0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>46.0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>130.0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>4788.0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>8756.0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>15268.0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>47771.0</v>
+      <c r="I8" s="4">
+        <v>186.0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>398.0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>617.0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2795.0</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="1"/>
-        <v>76788</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -8011,38 +6537,38 @@
         <v>14</v>
       </c>
       <c r="C9" s="4">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="4">
         <v>1.0</v>
       </c>
-      <c r="E9" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>19.0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>55.0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>188.0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>7174.0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>15254.0</v>
-      </c>
-      <c r="K9" s="11">
-        <v>24655.0</v>
-      </c>
-      <c r="L9" s="11">
-        <v>65278.0</v>
+      <c r="F9" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>361.0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>825.0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1117.0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3908.0</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="1"/>
-        <v>112643</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
@@ -9094,4459 +7620,339 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>2020.0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>52.0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>846.0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>911.0</v>
+      <c r="C2" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="F2" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="G2" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="H2" s="19">
+        <v>62.0</v>
+      </c>
+      <c r="I2" s="19">
+        <v>1318.0</v>
+      </c>
+      <c r="J2" s="19">
+        <v>2509.0</v>
+      </c>
+      <c r="K2" s="19">
+        <v>4181.0</v>
+      </c>
+      <c r="L2" s="19">
+        <v>16136.0</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" ref="M2:M9" si="1">SUM(C2:L2)</f>
+        <v>24252</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="3">
         <v>2020.0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>23.0</v>
-      </c>
-      <c r="K3" s="10">
-        <v>108.0</v>
-      </c>
-      <c r="L3" s="10">
-        <v>1241.0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>1382.0</v>
+      <c r="C3" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>15.0</v>
+      </c>
+      <c r="G3" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="H3" s="19">
+        <v>88.0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>2277.0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>4412.0</v>
+      </c>
+      <c r="K3" s="19">
+        <v>6576.0</v>
+      </c>
+      <c r="L3" s="19">
+        <v>20935.0</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="1"/>
+        <v>34326</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>2021.0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>34.0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>70.0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>840.0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>957.0</v>
+      <c r="C4" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="G4" s="19">
+        <v>44.0</v>
+      </c>
+      <c r="H4" s="19">
+        <v>94.0</v>
+      </c>
+      <c r="I4" s="19">
+        <v>2562.0</v>
+      </c>
+      <c r="J4" s="19">
+        <v>5644.0</v>
+      </c>
+      <c r="K4" s="19">
+        <v>9277.0</v>
+      </c>
+      <c r="L4" s="19">
+        <v>31689.0</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="1"/>
+        <v>49330</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="3">
         <v>2021.0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>42.0</v>
-      </c>
-      <c r="K5" s="10">
-        <v>121.0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1362.0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1536.0</v>
+      <c r="C5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>15.0</v>
+      </c>
+      <c r="G5" s="19">
+        <v>23.0</v>
+      </c>
+      <c r="H5" s="19">
+        <v>142.0</v>
+      </c>
+      <c r="I5" s="19">
+        <v>4197.0</v>
+      </c>
+      <c r="J5" s="19">
+        <v>9363.0</v>
+      </c>
+      <c r="K5" s="19">
+        <v>14743.0</v>
+      </c>
+      <c r="L5" s="19">
+        <v>40647.0</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="1"/>
+        <v>69138</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>2022.0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="C6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="4">
         <v>1.0</v>
       </c>
-      <c r="G6" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>33.0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>175.0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>344.0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>2188.0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>2742.0</v>
+      <c r="E6" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>15.0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>30.0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>118.0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>3122.0</v>
+      </c>
+      <c r="J6" s="19">
+        <v>7638.0</v>
+      </c>
+      <c r="K6" s="19">
+        <v>12528.0</v>
+      </c>
+      <c r="L6" s="19">
+        <v>42561.0</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="1"/>
+        <v>66017</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="3">
         <v>2022.0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="C7" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D7" s="4">
         <v>2.0</v>
       </c>
-      <c r="I7" s="10">
-        <v>75.0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>265.0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>723.0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>3191.0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>4257.0</v>
+      <c r="E7" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>14.0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>19.0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>175.0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>5107.0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>12483.0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>20499.0</v>
+      </c>
+      <c r="L7" s="19">
+        <v>56883.0</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="1"/>
+        <v>95192</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>2023.0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>33.0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>187.0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>382.0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>2344.0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>2947.0</v>
+      <c r="C8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>46.0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>130.0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>4788.0</v>
+      </c>
+      <c r="J8" s="19">
+        <v>8756.0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>15268.0</v>
+      </c>
+      <c r="L8" s="19">
+        <v>47771.0</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="1"/>
+        <v>76788</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="3">
         <v>2023.0</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>146.0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>334.0</v>
-      </c>
-      <c r="K9" s="10">
-        <v>695.0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>3313.0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>4495.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="25" width="10.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="5">
-        <v>2020.0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="C9" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="D9" s="4">
         <v>1.0</v>
       </c>
-      <c r="I2" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>28.0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>31.0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>313.0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>383.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="8">
-        <v>2020.0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>41.0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>73.0</v>
-      </c>
-      <c r="K3" s="10">
-        <v>75.0</v>
-      </c>
-      <c r="L3" s="10">
-        <v>484.0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>673.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="5">
-        <v>2021.0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>40.0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>45.0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>268.0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>370.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="8">
-        <v>2021.0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>44.0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>99.0</v>
-      </c>
-      <c r="K5" s="10">
-        <v>89.0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>489.0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>721.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="5">
-        <v>2022.0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>24.0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>78.0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>97.0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>613.0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>814.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="8">
-        <v>2022.0</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>81.0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>196.0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>212.0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>743.0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>1232.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="5">
-        <v>2023.0</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>27.0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>138.0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>724.0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>986.0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="8">
-        <v>2023.0</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>123.0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>288.0</v>
-      </c>
-      <c r="K9" s="10">
-        <v>266.0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>987.0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>1667.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="25" width="10.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="5">
-        <v>2020.0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>38.0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>54.0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>99.0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>409.0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="8">
-        <v>2020.0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>43.0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>195.0</v>
-      </c>
-      <c r="K3" s="10">
-        <v>204.0</v>
-      </c>
-      <c r="L3" s="10">
-        <v>756.0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>1198.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="5">
-        <v>2021.0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>27.0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>62.0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>396.0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>575.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="8">
-        <v>2021.0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>40.0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>171.0</v>
-      </c>
-      <c r="K5" s="10">
-        <v>216.0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>684.0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1111.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="5">
-        <v>2022.0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="E9" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="F9" s="19">
         <v>19.0</v>
       </c>
-      <c r="J6" s="7">
-        <v>59.0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>90.0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>398.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="8">
-        <v>2022.0</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>38.0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>112.0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>197.0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>440.0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>788.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="5">
-        <v>2023.0</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>68.0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>138.0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>366.0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>585.0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="8">
-        <v>2023.0</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>40.0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>148.0</v>
-      </c>
-      <c r="K9" s="10">
-        <v>297.0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>631.0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>1118.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="25" width="10.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="5">
-        <v>2020.0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>66.0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>160.0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>340.0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>2374.0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>2941.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="8">
-        <v>2020.0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>131.0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>459.0</v>
-      </c>
-      <c r="K3" s="10">
-        <v>715.0</v>
-      </c>
-      <c r="L3" s="10">
-        <v>3604.0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>4909.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="5">
-        <v>2021.0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>88.0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>261.0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>470.0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>2721.0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>3550.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="8">
-        <v>2021.0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>227.0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>623.0</v>
-      </c>
-      <c r="K5" s="10">
-        <v>1029.0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>4553.0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>6434.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="5">
-        <v>2022.0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>100.0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>438.0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>860.0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>4454.0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>5858.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="8">
-        <v>2022.0</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>354.0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>923.0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1741.0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>6577.0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>9607.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="5">
-        <v>2023.0</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>127.0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>485.0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>994.0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>4845.0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>6462.0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="8">
-        <v>2023.0</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>491.0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>1218.0</v>
-      </c>
-      <c r="K9" s="10">
-        <v>2029.0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>7167.0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>10920.0</v>
+      <c r="G9" s="19">
+        <v>55.0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>188.0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>7174.0</v>
+      </c>
+      <c r="J9" s="19">
+        <v>15254.0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>24655.0</v>
+      </c>
+      <c r="L9" s="19">
+        <v>65278.0</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="1"/>
+        <v>112643</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
